--- a/public/data/vehicles.xlsx
+++ b/public/data/vehicles.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Riqi\Tes Teknis\data dummy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F4BB0E9A-64E9-4FEB-813D-5241CB2B2F6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BC4F682-8A10-49DA-A337-802FD4FABD36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{EA550F88-03F9-4AD4-9035-D7E4547C610C}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="162">
   <si>
     <t>id</t>
   </si>
@@ -427,6 +427,99 @@
   </si>
   <si>
     <t>motorbike</t>
+  </si>
+  <si>
+    <t>Honda Civic</t>
+  </si>
+  <si>
+    <t>Honda Vario</t>
+  </si>
+  <si>
+    <t>Honda CRV</t>
+  </si>
+  <si>
+    <t>Toyota Fortuner</t>
+  </si>
+  <si>
+    <t>Yamaha Mio</t>
+  </si>
+  <si>
+    <t>Toyota Avanza</t>
+  </si>
+  <si>
+    <t>Pajero</t>
+  </si>
+  <si>
+    <t>Honda City</t>
+  </si>
+  <si>
+    <t>Honda Beat</t>
+  </si>
+  <si>
+    <t>Daihatsu Xenia</t>
+  </si>
+  <si>
+    <t>Innova Reborn</t>
+  </si>
+  <si>
+    <t>BMW M4</t>
+  </si>
+  <si>
+    <t>Yamaha Nmax</t>
+  </si>
+  <si>
+    <t>Honda Jazz</t>
+  </si>
+  <si>
+    <t>Honda PCX</t>
+  </si>
+  <si>
+    <t>Grand Livina</t>
+  </si>
+  <si>
+    <t>Daihatsu Terios</t>
+  </si>
+  <si>
+    <t>Toyota Rush</t>
+  </si>
+  <si>
+    <t>Honda HRV</t>
+  </si>
+  <si>
+    <t>Hyundai Creta</t>
+  </si>
+  <si>
+    <t>Yamaha Fino</t>
+  </si>
+  <si>
+    <t>Aerox</t>
+  </si>
+  <si>
+    <t>Yellow</t>
+  </si>
+  <si>
+    <t>Honda CBR 250</t>
+  </si>
+  <si>
+    <t>Yamaha R6</t>
+  </si>
+  <si>
+    <t>Yamaha Lexi</t>
+  </si>
+  <si>
+    <t>Yamaha Jupiter</t>
+  </si>
+  <si>
+    <t>Mitsubishi Xpander</t>
+  </si>
+  <si>
+    <t>Truck Box CDE</t>
+  </si>
+  <si>
+    <t>Truck Fuso</t>
+  </si>
+  <si>
+    <t>Truck Wingbox</t>
   </si>
 </sst>
 </file>
@@ -780,12 +873,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{922CC9AB-E272-4B56-A1A5-BB0B655679B8}">
   <dimension ref="A1:F121"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="C72" sqref="C72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="2" max="2" width="11.6640625" customWidth="1"/>
     <col min="3" max="3" width="19.88671875" customWidth="1"/>
     <col min="5" max="5" width="12.44140625" customWidth="1"/>
     <col min="6" max="6" width="13.21875" customWidth="1"/>
@@ -819,10 +913,10 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>131</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E2" t="s">
         <v>129</v>
@@ -919,10 +1013,10 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>132</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="E7" t="s">
         <v>130</v>
@@ -939,7 +1033,7 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>6</v>
+        <v>133</v>
       </c>
       <c r="D8" t="s">
         <v>7</v>
@@ -959,10 +1053,10 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>134</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E9" t="s">
         <v>129</v>
@@ -1039,7 +1133,7 @@
         <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>21</v>
+        <v>135</v>
       </c>
       <c r="D13" t="s">
         <v>22</v>
@@ -1059,7 +1153,7 @@
         <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>6</v>
+        <v>136</v>
       </c>
       <c r="D14" t="s">
         <v>7</v>
@@ -1079,7 +1173,7 @@
         <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>137</v>
       </c>
       <c r="D15" t="s">
         <v>10</v>
@@ -1099,7 +1193,7 @@
         <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>12</v>
+        <v>138</v>
       </c>
       <c r="D16" t="s">
         <v>13</v>
@@ -1159,10 +1253,10 @@
         <v>18</v>
       </c>
       <c r="C19" t="s">
-        <v>21</v>
+        <v>139</v>
       </c>
       <c r="D19" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="E19" t="s">
         <v>130</v>
@@ -1179,7 +1273,7 @@
         <v>19</v>
       </c>
       <c r="C20" t="s">
-        <v>6</v>
+        <v>140</v>
       </c>
       <c r="D20" t="s">
         <v>7</v>
@@ -1199,7 +1293,7 @@
         <v>20</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>141</v>
       </c>
       <c r="D21" t="s">
         <v>10</v>
@@ -1259,7 +1353,7 @@
         <v>23</v>
       </c>
       <c r="C24" t="s">
-        <v>18</v>
+        <v>142</v>
       </c>
       <c r="D24" t="s">
         <v>19</v>
@@ -1279,10 +1373,10 @@
         <v>24</v>
       </c>
       <c r="C25" t="s">
-        <v>21</v>
+        <v>143</v>
       </c>
       <c r="D25" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E25" t="s">
         <v>130</v>
@@ -1299,7 +1393,7 @@
         <v>25</v>
       </c>
       <c r="C26" t="s">
-        <v>6</v>
+        <v>144</v>
       </c>
       <c r="D26" t="s">
         <v>7</v>
@@ -1399,10 +1493,10 @@
         <v>30</v>
       </c>
       <c r="C31" t="s">
-        <v>21</v>
+        <v>145</v>
       </c>
       <c r="D31" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="E31" t="s">
         <v>130</v>
@@ -1419,7 +1513,7 @@
         <v>31</v>
       </c>
       <c r="C32" t="s">
-        <v>6</v>
+        <v>146</v>
       </c>
       <c r="D32" t="s">
         <v>7</v>
@@ -1439,7 +1533,7 @@
         <v>32</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>147</v>
       </c>
       <c r="D33" t="s">
         <v>10</v>
@@ -1459,7 +1553,7 @@
         <v>33</v>
       </c>
       <c r="C34" t="s">
-        <v>12</v>
+        <v>148</v>
       </c>
       <c r="D34" t="s">
         <v>13</v>
@@ -1539,7 +1633,7 @@
         <v>37</v>
       </c>
       <c r="C38" t="s">
-        <v>6</v>
+        <v>149</v>
       </c>
       <c r="D38" t="s">
         <v>7</v>
@@ -1559,7 +1653,7 @@
         <v>38</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>150</v>
       </c>
       <c r="D39" t="s">
         <v>10</v>
@@ -2019,13 +2113,13 @@
         <v>1</v>
       </c>
       <c r="C62" t="s">
-        <v>6</v>
+        <v>139</v>
       </c>
       <c r="D62" t="s">
         <v>7</v>
       </c>
       <c r="E62" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F62" t="s">
         <v>78</v>
@@ -2039,13 +2133,13 @@
         <v>2</v>
       </c>
       <c r="C63" t="s">
-        <v>9</v>
+        <v>151</v>
       </c>
       <c r="D63" t="s">
         <v>10</v>
       </c>
       <c r="E63" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F63" t="s">
         <v>79</v>
@@ -2059,7 +2153,7 @@
         <v>3</v>
       </c>
       <c r="C64" t="s">
-        <v>12</v>
+        <v>140</v>
       </c>
       <c r="D64" t="s">
         <v>13</v>
@@ -2079,7 +2173,7 @@
         <v>4</v>
       </c>
       <c r="C65" t="s">
-        <v>15</v>
+        <v>158</v>
       </c>
       <c r="D65" t="s">
         <v>16</v>
@@ -2099,7 +2193,7 @@
         <v>5</v>
       </c>
       <c r="C66" t="s">
-        <v>18</v>
+        <v>159</v>
       </c>
       <c r="D66" t="s">
         <v>19</v>
@@ -2119,10 +2213,10 @@
         <v>6</v>
       </c>
       <c r="C67" t="s">
-        <v>21</v>
+        <v>152</v>
       </c>
       <c r="D67" t="s">
-        <v>22</v>
+        <v>153</v>
       </c>
       <c r="E67" t="s">
         <v>130</v>
@@ -2179,7 +2273,7 @@
         <v>9</v>
       </c>
       <c r="C70" t="s">
-        <v>12</v>
+        <v>160</v>
       </c>
       <c r="D70" t="s">
         <v>13</v>
@@ -2199,7 +2293,7 @@
         <v>10</v>
       </c>
       <c r="C71" t="s">
-        <v>15</v>
+        <v>161</v>
       </c>
       <c r="D71" t="s">
         <v>16</v>
@@ -2539,13 +2633,13 @@
         <v>27</v>
       </c>
       <c r="C88" t="s">
-        <v>12</v>
+        <v>156</v>
       </c>
       <c r="D88" t="s">
         <v>13</v>
       </c>
       <c r="E88" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F88" t="s">
         <v>101</v>
@@ -2559,13 +2653,13 @@
         <v>28</v>
       </c>
       <c r="C89" t="s">
-        <v>15</v>
+        <v>157</v>
       </c>
       <c r="D89" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="E89" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F89" t="s">
         <v>102</v>
@@ -3019,13 +3113,13 @@
         <v>51</v>
       </c>
       <c r="C112" t="s">
-        <v>12</v>
+        <v>155</v>
       </c>
       <c r="D112" t="s">
         <v>13</v>
       </c>
       <c r="E112" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F112" t="s">
         <v>121</v>
@@ -3079,13 +3173,13 @@
         <v>54</v>
       </c>
       <c r="C115" t="s">
-        <v>21</v>
+        <v>147</v>
       </c>
       <c r="D115" t="s">
         <v>22</v>
       </c>
       <c r="E115" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F115" t="s">
         <v>124</v>
@@ -3159,13 +3253,13 @@
         <v>58</v>
       </c>
       <c r="C119" t="s">
-        <v>15</v>
+        <v>154</v>
       </c>
       <c r="D119" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E119" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F119" t="s">
         <v>106</v>
@@ -3179,13 +3273,13 @@
         <v>59</v>
       </c>
       <c r="C120" t="s">
-        <v>18</v>
+        <v>132</v>
       </c>
       <c r="D120" t="s">
         <v>19</v>
       </c>
       <c r="E120" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F120" t="s">
         <v>127</v>
@@ -3199,7 +3293,7 @@
         <v>60</v>
       </c>
       <c r="C121" t="s">
-        <v>21</v>
+        <v>136</v>
       </c>
       <c r="D121" t="s">
         <v>22</v>

--- a/public/data/vehicles.xlsx
+++ b/public/data/vehicles.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Riqi\Tes Teknis\data dummy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BC4F682-8A10-49DA-A337-802FD4FABD36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{456D4A7F-F3C5-4DEA-98AD-BD3FD6AF53C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{EA550F88-03F9-4AD4-9035-D7E4547C610C}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="164">
   <si>
     <t>id</t>
   </si>
@@ -520,6 +520,12 @@
   </si>
   <si>
     <t>Truck Wingbox</t>
+  </si>
+  <si>
+    <t>Pajero Sport</t>
+  </si>
+  <si>
+    <t>Honda CBR 150</t>
   </si>
 </sst>
 </file>
@@ -873,8 +879,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{922CC9AB-E272-4B56-A1A5-BB0B655679B8}">
   <dimension ref="A1:F121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="C72" sqref="C72"/>
+    <sheetView tabSelected="1" topLeftCell="A98" workbookViewId="0">
+      <selection activeCell="E117" sqref="E117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1213,7 +1219,7 @@
         <v>16</v>
       </c>
       <c r="C17" t="s">
-        <v>15</v>
+        <v>136</v>
       </c>
       <c r="D17" t="s">
         <v>16</v>
@@ -1733,10 +1739,10 @@
         <v>42</v>
       </c>
       <c r="C43" t="s">
-        <v>21</v>
+        <v>132</v>
       </c>
       <c r="D43" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="E43" t="s">
         <v>130</v>
@@ -1753,7 +1759,7 @@
         <v>43</v>
       </c>
       <c r="C44" t="s">
-        <v>6</v>
+        <v>138</v>
       </c>
       <c r="D44" t="s">
         <v>7</v>
@@ -1773,7 +1779,7 @@
         <v>44</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>162</v>
       </c>
       <c r="D45" t="s">
         <v>10</v>
@@ -1993,7 +1999,7 @@
         <v>55</v>
       </c>
       <c r="C56" t="s">
-        <v>6</v>
+        <v>131</v>
       </c>
       <c r="D56" t="s">
         <v>7</v>
@@ -2413,13 +2419,13 @@
         <v>16</v>
       </c>
       <c r="C77" t="s">
-        <v>15</v>
+        <v>152</v>
       </c>
       <c r="D77" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="E77" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F77" t="s">
         <v>40</v>
@@ -2953,13 +2959,13 @@
         <v>43</v>
       </c>
       <c r="C104" t="s">
-        <v>6</v>
+        <v>139</v>
       </c>
       <c r="D104" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="E104" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F104" t="s">
         <v>115</v>
@@ -3193,13 +3199,13 @@
         <v>55</v>
       </c>
       <c r="C116" t="s">
-        <v>6</v>
+        <v>163</v>
       </c>
       <c r="D116" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E116" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F116" t="s">
         <v>125</v>
